--- a/data/trans_dic/IMC_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IMC_R2-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con sobrepeso u obesidad</t>
+          <t>Población con sobrepeso u obesidad (tasa de respuesta: 97,68%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +601,72 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>67,87%</t>
+          <t>74,03%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>71,37%</t>
+          <t>74,41%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>71,27%</t>
+          <t>71,52%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>70,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>76,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>68,81%</t>
+          <t>62,27%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>65,43%</t>
+          <t>77,92%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>65,12%</t>
+          <t>69,1%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>72,27%</t>
+          <t>68,32%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>70,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>68,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>67,66%</t>
+          <t>63,84%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>76,0%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>71,59%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>69,77%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>63,12%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>55,88; 77,22</t>
+          <t>54,05; 83,82</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>63,44; 77,56</t>
+          <t>62,91; 81,51</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>61,54; 76,89</t>
+          <t>60,99; 77,78</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>64,22; 75,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>69,23; 82,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>63,6; 73,35</t>
+          <t>40,47; 74,8</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>55,24; 71,36</t>
+          <t>69,14; 84,55</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>58,26; 70,65</t>
+          <t>62,27; 74,98</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>65,09; 77,84</t>
+          <t>62,71; 72,63</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>65,0; 73,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>61,01; 72,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>63,33; 71,76</t>
+          <t>55,24; 71,76</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>65,79; 82,07</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>65,82; 75,95</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>63,74; 73,5</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>50,24; 70,5</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>59,44%</t>
+          <t>63,47%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>58,46%</t>
+          <t>59,83%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>62,76%</t>
+          <t>62,74%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>58,91%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>47,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>47,61%</t>
+          <t>64,55%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>48,15%</t>
+          <t>49,44%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>45,97%</t>
+          <t>48,34%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>53,74%</t>
+          <t>48,31%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>53,22%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>55,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>53,13%</t>
+          <t>48,39%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>56,29%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>54,12%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>55,86%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>56,42%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>54,75; 64,26</t>
+          <t>57,72; 69,18</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>53,72; 62,32</t>
+          <t>54,47; 64,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>58,18; 67,53</t>
+          <t>58,1; 67,31</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>54,35; 63,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>43,1; 52,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>43,45; 51,08</t>
+          <t>58,36; 70,46</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>43,98; 52,25</t>
+          <t>43,29; 54,97</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>41,28; 50,56</t>
+          <t>44,2; 53,21</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>50,01; 56,59</t>
+          <t>44,04; 52,3</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>50,18; 56,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>52,59; 58,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>49,8; 56,42</t>
+          <t>42,57; 53,65</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>52,58; 60,62</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>50,58; 57,53</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>52,48; 59,1</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>52,24; 60,67</t>
         </is>
       </c>
     </row>
@@ -936,62 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>54,33%</t>
+          <t>62,53%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>56,13%</t>
+          <t>58,18%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>57,65%</t>
+          <t>57,66%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>47,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>31,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>32,19%</t>
+          <t>55,89%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>31,88%</t>
+          <t>31,83%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>34,1%</t>
+          <t>32,28%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>42,8%</t>
+          <t>31,89%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>43,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>44,37%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>40,54%</t>
+          <t>35,81%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>46,67%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>44,63%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>44,41%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>45,48%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1203,99 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>48,24; 59,91</t>
+          <t>55,92; 68,62</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>51,13; 61,65</t>
+          <t>52,82; 63,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>52,58; 62,98</t>
+          <t>52,97; 62,7</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>38,83; 55,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>26,64; 36,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>28,37; 36,28</t>
+          <t>49,68; 62,48</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>27,99; 35,73</t>
+          <t>26,83; 37,19</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>29,19; 40,17</t>
+          <t>27,88; 37,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>39,27; 46,61</t>
+          <t>27,94; 35,83</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>40,6; 47,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>41,46; 47,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>35,83; 45,28</t>
+          <t>30,69; 41,19</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>42,48; 51,48</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>41,04; 48,47</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>41,59; 47,46</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>41,26; 50,09</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>59,39%</t>
+          <t>54,1%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>60,57%</t>
+          <t>57,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>62,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>59,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>48,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>47,88%</t>
+          <t>61,18%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>47,12%</t>
+          <t>47,93%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>49,69%</t>
+          <t>49,15%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>53,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>54,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>54,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>54,8%</t>
+          <t>41,17%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>51,2%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>53,37%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>51,72%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,2019 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>55,5; 62,93</t>
+          <t>48,96; 59,58</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>57,34; 63,27</t>
+          <t>50,29; 62,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>59,64; 66,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>56,05; 63,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>45,39; 51,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>45,46; 50,51</t>
+          <t>54,96; 66,94</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>44,32; 49,8</t>
+          <t>42,97; 52,56</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>46,24; 53,07</t>
+          <t>43,93; 55,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>51,6; 56,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>52,22; 56,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>52,61; 56,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>52,4; 57,55</t>
+          <t>35,45; 47,08</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>47,66; 54,75</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>48,36; 57,48</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>47,35; 55,94</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>60,37%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>60,92%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>62,87%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>61,07%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>47,83%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>47,65%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>47,6%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>45,46%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>54,16%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>54,27%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>55,17%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>53,21%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>57,11; 63,61</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>57,82; 63,89</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>59,38; 65,57</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>56,64; 64,6</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>44,94; 50,61</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>44,97; 50,24</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>44,93; 50,07</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>42,26; 48,36</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>51,84; 56,42</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>52,16; 56,37</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>52,88; 57,27</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>50,72; 55,49</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con sobrepeso u obesidad (tasa de respuesta: 97,68%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>165.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>202.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>174.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>239.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>188.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>339.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>441.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>173.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>242717</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>374919</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>482858</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>267589</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>263818</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>393985</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>557058</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>327296</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>506536</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>768904</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>1039917</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>594885</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>177216; 274823</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>316942; 410651</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>411790; 525147</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>173917; 321455</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>234109; 286272</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>355056; 427478</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>511319; 592229</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>283203; 367905</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>438471; 546963</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>706878; 815716</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>950056; 1095552</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>473515; 664365</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>190.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>280.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>367.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>201.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>180.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>260.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>328.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>184.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>370.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>540.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>695.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>385.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>573957</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>701110</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>987506</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>672032</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>468458</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>559614</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>693352</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>509720</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>1042414</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>1260723</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>1680858</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>1181752</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>521925; 625542</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>638377; 761028</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>914508; 1059409</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>607653; 733607</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>410153; 520812</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>511673; 616046</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>632044; 750645</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>448409; 565142</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>973693; 1122509</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>1178389; 1340185</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>1579074; 1778432</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>1094262; 1270768</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>157.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>213.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>274.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>159.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>144.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>188.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>127.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>249.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>357.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>462.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>286.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>433002</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>485797</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>621685</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>457154</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>235535</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>295507</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>363446</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>315500</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>668537</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>781304</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>985132</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>772654</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>387256; 475175</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>441049; 532663</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>571126; 676023</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>406410; 511110</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>198564; 275274</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>255249; 338768</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>318476; 408368</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>270350; 362880</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>608559; 737505</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>718463; 848391</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>922536; 1052751</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>701042; 851066</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>256.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>173.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>197.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>217.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>154.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>136.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>473.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>327.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>333.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>756928</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>468885</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>636857</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>592237</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>346836</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>384281</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>1349164</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>815721</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>1021138</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>685122; 833640</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>413664; 518081</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>572085; 696810</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>530925; 649398</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>309990; 388089</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>330912; 439492</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>1255787; 1442575</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>739097; 878513</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>934980; 1104578</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>693.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>831.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>843.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>641.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>587.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>732.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>755.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>536.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>1280.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>1563.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>1598.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>1177.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>2006604</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>2030710</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>2092049</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>2033632</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>1560048</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>1595943</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1613857</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>1536797</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>3566652</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>3626654</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>3705906</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>3570429</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1898353; 2114326</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1927479; 2129547</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1975928; 2181703</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>1885982; 2151228</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>1465888; 1650675</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>1506036; 1682391</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1523131; 1697636</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>1428711; 1634758</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>3413799; 3715476</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>3485557; 3767122</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>3552171; 3846982</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>3403853; 3723769</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
